--- a/TestData/TRIAL.xlsx
+++ b/TestData/TRIAL.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutomationTestingWorkspace\App Project\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6DD270-4054-446D-ADFE-13162E1ED5CE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CBC4D5F2-01E6-40B5-B72E-BEC72949C0C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15735" windowHeight="1770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -51,9 +47,6 @@
     <t>PUNE</t>
   </si>
   <si>
-    <t>JIVRAJ</t>
-  </si>
-  <si>
     <t>JAIPUR</t>
   </si>
   <si>
@@ -87,9 +80,6 @@
     <t>LONDON</t>
   </si>
   <si>
-    <t>LEE</t>
-  </si>
-  <si>
     <t>DOUGLES</t>
   </si>
   <si>
@@ -108,9 +98,6 @@
     <t>MAXICO</t>
   </si>
   <si>
-    <t>MURHY</t>
-  </si>
-  <si>
     <t>LM</t>
   </si>
   <si>
@@ -127,6 +114,15 @@
   </si>
   <si>
     <t>Barat</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>vishu</t>
+  </si>
+  <si>
+    <t>pal</t>
   </si>
 </sst>
 </file>
@@ -520,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +565,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -581,126 +577,126 @@
         <v>222</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>333</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>444</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>555</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>666</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>777</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>888</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>999</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
